--- a/data/trans_dic/ProbViv_estruc-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.1340248360349006</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.09628753535971749</v>
+        <v>0.09628753535971751</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1145805446009886</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1089330694643108</v>
+        <v>0.1046370277885433</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07792827278173842</v>
+        <v>0.07945727871597492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09874666261645983</v>
+        <v>0.0969680639937331</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1691435588273084</v>
+        <v>0.1681319528387897</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1158829193741</v>
+        <v>0.1171225920578715</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1355539152996641</v>
+        <v>0.1339770424174968</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.09415757979095996</v>
+        <v>0.09415757979095994</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1104401744062487</v>
+        <v>0.1104401744062488</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1023742469217521</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07561985337481548</v>
+        <v>0.07629391924939621</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0944481039354393</v>
+        <v>0.09466367122660202</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0896784184880817</v>
+        <v>0.08983760132470413</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1149694664169079</v>
+        <v>0.1159259807179975</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1308960179047997</v>
+        <v>0.1298381118126145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1166431328486458</v>
+        <v>0.1168542202277448</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.08649714081013195</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.08049032054239841</v>
+        <v>0.08049032054239842</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05670598498264785</v>
+        <v>0.05649640264863038</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06978202743313452</v>
+        <v>0.06970245303849099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06836289951368328</v>
+        <v>0.06718807565551731</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09872475264819291</v>
+        <v>0.1001356147756963</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1077995661266485</v>
+        <v>0.1063154720163713</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09629828283370859</v>
+        <v>0.09508904314874569</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1032945782403746</v>
+        <v>0.1032945782403747</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.1137767342195287</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0836514400255316</v>
+        <v>0.08366319723275863</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09711276986886264</v>
+        <v>0.09766278263730827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09723639075152887</v>
+        <v>0.09534279996273001</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1255518668472749</v>
+        <v>0.1254655966153271</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1330614360358622</v>
+        <v>0.1327632905131171</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1229784696785651</v>
+        <v>0.122032198152454</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08954592698644513</v>
+        <v>0.08981966478837909</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09495048231650099</v>
+        <v>0.09447554175000494</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09398665731551784</v>
+        <v>0.09457141731853017</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1113589095605645</v>
+        <v>0.1120593932805328</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1137753717715375</v>
+        <v>0.1132565501899328</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1095243152290794</v>
+        <v>0.1092716577716998</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>75241</v>
+        <v>72274</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>57213</v>
+        <v>58336</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>140703</v>
+        <v>138169</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>116829</v>
+        <v>116130</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>85079</v>
+        <v>85989</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>193149</v>
+        <v>190902</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>79319</v>
+        <v>80026</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>100920</v>
+        <v>101150</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>189888</v>
+        <v>190225</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>120593</v>
+        <v>121597</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>139865</v>
+        <v>138735</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>246984</v>
+        <v>247431</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>45472</v>
+        <v>45304</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>56681</v>
+        <v>56616</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>110348</v>
+        <v>108452</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>79167</v>
+        <v>80298</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>87561</v>
+        <v>86356</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>155440</v>
+        <v>153488</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>82742</v>
+        <v>82754</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>108601</v>
+        <v>109216</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>204918</v>
+        <v>200928</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>124187</v>
+        <v>124102</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>148802</v>
+        <v>148469</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>259168</v>
+        <v>257173</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>316155</v>
+        <v>317122</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>354474</v>
+        <v>352701</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>682710</v>
+        <v>686958</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>393169</v>
+        <v>395642</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>424752</v>
+        <v>422815</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>795574</v>
+        <v>793739</v>
       </c>
     </row>
     <row r="24">
